--- a/Resource/excel/框架-配置列表.xlsx
+++ b/Resource/excel/框架-配置列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="155">
   <si>
     <t>#config</t>
   </si>
@@ -371,15 +371,6 @@
   </si>
   <si>
     <t>./config/dropdata.xml</t>
-  </si>
-  <si>
-    <t>元素配置表</t>
-  </si>
-  <si>
-    <t>element</t>
-  </si>
-  <si>
-    <t>./config/element.xml</t>
   </si>
   <si>
     <t>条件定义配置</t>
@@ -498,9 +489,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -524,7 +515,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,15 +536,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,7 +558,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,7 +581,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,13 +610,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,31 +618,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,24 +649,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -719,6 +710,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -731,175 +806,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,6 +919,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -939,36 +939,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,15 +973,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1025,153 +986,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1638,10 +1629,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2648,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" s="9" customFormat="1" spans="1:8">
+    <row r="40" s="9" customFormat="1" ht="14" customHeight="1" spans="1:8">
       <c r="A40" s="9" t="s">
         <v>124</v>
       </c>
@@ -2700,70 +2691,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="9" customFormat="1" ht="14" customHeight="1" spans="1:8">
-      <c r="A42" s="9" t="s">
+    <row r="42" s="10" customFormat="1" spans="1:8">
+      <c r="A42" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="9">
-        <v>1</v>
-      </c>
-      <c r="F42" s="9">
-        <v>1</v>
-      </c>
-      <c r="G42" s="9">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0</v>
+      <c r="D42" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1</v>
+      </c>
+      <c r="F42" s="10">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="43" s="10" customFormat="1" spans="1:8">
       <c r="A43" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="D43" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="E43" s="10">
         <v>1</v>
       </c>
       <c r="F43" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="10">
         <v>0</v>
       </c>
       <c r="H43" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" s="10" customFormat="1" spans="1:8">
       <c r="A44" s="10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E44" s="10">
         <v>1</v>
@@ -2780,10 +2771,10 @@
     </row>
     <row r="45" s="10" customFormat="1" spans="1:8">
       <c r="A45" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>141</v>
@@ -2795,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="10">
         <v>0</v>
@@ -2905,32 +2896,6 @@
         <v>0</v>
       </c>
       <c r="H49" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" s="10" customFormat="1" spans="1:8">
-      <c r="A50" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" s="10">
-        <v>1</v>
-      </c>
-      <c r="F50" s="10">
-        <v>1</v>
-      </c>
-      <c r="G50" s="10">
-        <v>0</v>
-      </c>
-      <c r="H50" s="10">
         <v>0</v>
       </c>
     </row>
